--- a/biology/Médecine/Forum_européen_de_bioéthique/Forum_européen_de_bioéthique.xlsx
+++ b/biology/Médecine/Forum_européen_de_bioéthique/Forum_européen_de_bioéthique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Forum européen de bioéthique a pour vocation de rendre accessible à tous les questions de bioéthique. Initié par le professeur Israël Nisand et présidé par le professeur Jean-Louis Mandel, il ambitionne par ailleurs de faire de l’Alsace, région de tradition humaniste, un centre de référence en matière de réflexion bioéthique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forum Européen de Bioéthique est l’occasion de réunir chaque année à Strasbourg des experts européens face au grand public. Mais au-delà des débats et des échanges, il implique aussi les jeunes et la scène culturelle à travers des approches originales pédagogiques et culturelles.
 Le Forum Européen de Bioéthique est composé de trois volets : Forum des Rencontres-Débats, Forum Jeunes, Forum Culture.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Les membres fondateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Israël Nisand, professeur de médecine, responsable du pôle de gynécologie obstétrique et de sénologie aux hôpitaux universitaires de Strasbourg.
 Jean-Louis Mandel, médecin, généticien, professeur de génétique humaine au Collège de France.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Le conseil d’administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Association à but non lucratif, son conseil d’administration est composé de :
 Président : Israël Nisand.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Le conseil scientifique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Président du conseil scientifique : Jean-Paul Costa, président de l’Institut International des Droits de l'Homme, ancien président de la Cour européenne des droits de l'homme[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président du conseil scientifique : Jean-Paul Costa, président de l’Institut International des Droits de l'Homme, ancien président de la Cour européenne des droits de l'homme.
 </t>
         </is>
       </c>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+          <t>Forum_européen_de_bioéthique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,58 +674,202 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2011 – Fin de vie et vieillissement
-Du 1er au 5 février 2011.
-Président du conseil scientifique : Jean-François Mattei, ancien ministre, président de la Croix Rouge Française[2].
+          <t>2011 – Fin de vie et vieillissement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Du 1er au 5 février 2011.
+Président du conseil scientifique : Jean-François Mattei, ancien ministre, président de la Croix Rouge Française.
 66 intervenants
-6 500 personnes
-2012 – Procréation, la famille en chantier
-Du 30 janvier au 4 février 2012.
-Président du conseil scientifique : Jean-Claude Ameisen, professeur d’immunologie, président du Comité d’Éthique de l’Inserm, président actuel du Comité consultatif national d'éthique[3].
+6 500 personnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forum_européen_de_bioéthique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les cinq éditions du forum</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2012 – Procréation, la famille en chantier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Du 30 janvier au 4 février 2012.
+Président du conseil scientifique : Jean-Claude Ameisen, professeur d’immunologie, président du Comité d’Éthique de l’Inserm, président actuel du Comité consultatif national d'éthique.
 130 intervenants
-9 000 personnes
-2013 – Le corps humain en pièces détachées
-Du 28 janvier au 1er février 2013.
+9 000 personnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forum_européen_de_bioéthique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les cinq éditions du forum</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2013 – Le corps humain en pièces détachées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 28 janvier au 1er février 2013.
 Président du conseil scientifique : Alain Grimfeld, professeur et pédiatre, président du Comité consultatif national d'éthique.
 145 intervenants
 12 000 personnes
-2014 –  Connaître le cerveau, maîtriser les comportements
-Du 27 janvier au 1er février 2015.
-Président du conseil scientifique : Jean-Paul Costa, président de l’Institut International des Droits de l'Homme, ancien président de la Cour européenne des droits de l'homme[1].
-130 intervenants
-2014 – l’argent et la santé
-Du 2 au 7 février 2015.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forum_européen_de_bioéthique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les cinq éditions du forum</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2014 –  Connaître le cerveau, maîtriser les comportements</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Du 27 janvier au 1er février 2015.
+Président du conseil scientifique : Jean-Paul Costa, président de l’Institut International des Droits de l'Homme, ancien président de la Cour européenne des droits de l'homme.
+130 intervenants</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forum_européen_de_bioéthique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les cinq éditions du forum</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2014 – l’argent et la santé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Du 2 au 7 février 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forum_européen_de_bioéthique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forum_europ%C3%A9en_de_bio%C3%A9thique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Financement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forum européen de bioéthique est soutenu financièrement par le Conseil Régional d’Alsace, la Ville de Strasbourg et la Communauté Urbaine de Strasbourg.
-Il bénéficie en outre de nombreux partenariats dont : le Club de la Presse Strasbourg Europe, Les Dernières Nouvelles d’Alsace, la Librairie Kléber, le Conseil de l’Europe, le Rectorat de l’Académie de Strasbourg, l’Université de Strasbourg[4].
+Il bénéficie en outre de nombreux partenariats dont : le Club de la Presse Strasbourg Europe, Les Dernières Nouvelles d’Alsace, la Librairie Kléber, le Conseil de l’Europe, le Rectorat de l’Académie de Strasbourg, l’Université de Strasbourg.
 </t>
         </is>
       </c>
